--- a/doc/系统测试账号备忘录.xlsx
+++ b/doc/系统测试账号备忘录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sofar-测试平台-质量管理平台\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B3FCEB-97BD-44C1-98AB-80CC69EC4516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5BE5E9-4CEC-4FD6-9EAD-1EF3D5951CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="4365" windowWidth="25185" windowHeight="15015" xr2:uid="{8EBC7011-81C2-423A-B6A0-D7E517909F92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8EBC7011-81C2-423A-B6A0-D7E517909F92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首航质量平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首航质量平台管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,27 +71,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SZSF000559</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>licong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首航问题管理者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首航一般用户-余鑫耸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首航一般用户-测试2</t>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首航一般用户-测试1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>超级管理员，开发团队系统管理员使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首航问题解决者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首航问题分发者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试地址：http://172.16.16.33:8009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式地址：http://qms.sofarsolar.com:8002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发后台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -168,37 +172,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,12 +191,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD4FAFF-E951-4020-BD24-2DF51706362B}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -572,51 +546,51 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>123456</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>123456</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>123456</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8">
-        <v>123456</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8">
-        <v>123456</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8">
-        <v>123456</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>123456</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -624,38 +598,36 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
         <v>123456</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8">
-        <v>123456</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A3:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/系统测试账号备忘录.xlsx
+++ b/doc/系统测试账号备忘录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sofar-测试平台-质量管理平台\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5BE5E9-4CEC-4FD6-9EAD-1EF3D5951CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E1E0A6-EA4F-42C4-B0A6-C1989A846C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8EBC7011-81C2-423A-B6A0-D7E517909F92}"/>
+    <workbookView xWindow="6345" yWindow="840" windowWidth="18900" windowHeight="14640" xr2:uid="{8EBC7011-81C2-423A-B6A0-D7E517909F92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>superadmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wanghongyu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超级管理员，开发团队系统管理员使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首航问题解决者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,14 +88,6 @@
   </si>
   <si>
     <t>测试地址：http://172.16.16.33:8009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式地址：http://qms.sofarsolar.com:8002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发后台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,26 +143,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,9 +157,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -517,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD4FAFF-E951-4020-BD24-2DF51706362B}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -546,39 +514,37 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
+      <c r="A2" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5">
+        <v>123456</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>123456</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
-        <v>123456</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6">
-        <v>123456</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>123456</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -586,48 +552,31 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
         <v>123456</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6">
-        <v>123456</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
